--- a/biology/Zoologie/Grande_coronide/Grande_coronide.xlsx
+++ b/biology/Zoologie/Grande_coronide/Grande_coronide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Satyrus ferula
 La Grande coronide, Pupillé ou Semi-Actéon (Satyrus ferula) est une espèce de lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Satyrus.
@@ -512,58 +524,58 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été nommée Satyrus ferula par Johan Christian Fabricius en 1793.
-Synonymes : Papilio ferula Fabricius, 1793; Papilio cordula Fabricius, 1793; Hipparchia ferula ;Papilio bryce Hübner, 1800 ; Satyrus cordula[1].
-Sous-espèces
-Satyrus ferula alaica Staudinger, 1886 ;
+Synonymes : Papilio ferula Fabricius, 1793; Papilio cordula Fabricius, 1793; Hipparchia ferula ;Papilio bryce Hübner, 1800 ; Satyrus cordula.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Grande_coronide</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_coronide</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Satyrus ferula alaica Staudinger, 1886 ;
 Satyrus ferula altaica Grum-Grshimailo, 1893 ;
-Satyrus ferula atlantea (Verity, 1927) dans l'ouest du Maroc, la Coronide de l'Atlas[2].
+Satyrus ferula atlantea (Verity, 1927) dans l'ouest du Maroc, la Coronide de l'Atlas.
 Satyrus ferula cordulina Staudinger, 1886 ;
 Satyrus ferula liupiuschani O. Bang-Haas, 1933 ;
 Satyrus ferula medvedevi Korshunov, 1996 ;
 Satyrus ferula penketia Fruhstorfer, 1908 ; en Grèce.
 Satyrus ferula rickmersi van Rosen, 1921 ;
 Satyrus ferula sergeevi Dubatolov et Streltzov, 1999 ;
-Satyrus ferula serva Fruhstorfer, 1909 [3];
-Noms vernaculaires
-La Grande coronide ou Pupillé ou Semi-Actéon se nomme Great Sooty Satyr en anglais[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Grande_coronide</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grande_coronide</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Grande coronide est de couleur marron plus ou moins foncé avec ou pas une large bande orangée, et deux gros ocelles marron pupillés de blanc aux antérieures.
-Le revers des antérieures est semblable, celui des postérieures est de différents tons de beige, ocre ou marron formant une ornementation variable.
-Chenille
-Elle est de couleur beige à rayures longitudinales marron terne.
-</t>
+Satyrus ferula serva Fruhstorfer, 1909 ;</t>
         </is>
       </c>
     </row>
@@ -588,15 +600,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-La Grande coronide vole en une génération entre mi-juin et début août[4].
-Plantes hôtes
-Ses plantes hôtes sont des Festuca dont Festuca ovina , des Stipa, et Deschampsia caespitosa[3].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Grande coronide ou Pupillé ou Semi-Actéon se nomme Great Sooty Satyr en anglais.
 </t>
         </is>
       </c>
@@ -622,17 +637,234 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Grande coronide est de couleur marron plus ou moins foncé avec ou pas une large bande orangée, et deux gros ocelles marron pupillés de blanc aux antérieures.
+Le revers des antérieures est semblable, celui des postérieures est de différents tons de beige, ocre ou marron formant une ornementation variable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grande_coronide</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_coronide</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est de couleur beige à rayures longitudinales marron terne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grande_coronide</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_coronide</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Grande coronide vole en une génération entre mi-juin et début août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grande_coronide</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_coronide</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des Festuca dont Festuca ovina , des Stipa, et Deschampsia caespitosa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grande_coronide</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_coronide</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Grande coronide est présente au Maroc, dans le sud de l'Europe (France, Italie, Albanie, Grèce), en Asie Mineure, Iran, Ukraine, Kazakhstan, sud-ouest de la Sibérie et dans l'ouest de la Chine[4],[3].
-La Grande coronide  est présente dans tous les départements de la moitié sud de la France métropolitaine excepté les départements de la côte atlantique et la Corse[5].
-Biotope
-Elle réside dans les lieux rocheux herbus et buissonneux.
-Protection
-Pas de statut de protection particulier[6].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Grande coronide est présente au Maroc, dans le sud de l'Europe (France, Italie, Albanie, Grèce), en Asie Mineure, Iran, Ukraine, Kazakhstan, sud-ouest de la Sibérie et dans l'ouest de la Chine,.
+La Grande coronide  est présente dans tous les départements de la moitié sud de la France métropolitaine excepté les départements de la côte atlantique et la Corse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grande_coronide</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_coronide</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle réside dans les lieux rocheux herbus et buissonneux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Grande_coronide</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_coronide</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
